--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1222366.36632945</v>
+        <v>-1224922.663503048</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>55.66364173812151</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9338715566937</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>237.8198396064739</v>
+        <v>294.7321536188797</v>
       </c>
       <c r="I2" t="n">
         <v>42.04518470759564</v>
@@ -713,13 +713,13 @@
         <v>203.9711388310543</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I4" t="n">
-        <v>28.16285399652156</v>
+        <v>96.51626366671985</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.17712508496183</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>94.6856118408575</v>
       </c>
       <c r="T4" t="n">
         <v>219.5722280944081</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>406.9405110548651</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2.89483114313083</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>22.24347161699322</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>277.4892624793658</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8.947763496516297</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>12.36155726322631</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>26.77891268530598</v>
+        <v>1.426078110004873</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>116.1324508043526</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>79.54367350501137</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>243.4759147696094</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>94.80184639741307</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>36.74735985928004</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>26.12116916216469</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695766</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>13.74238375877684</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>115.7063133373737</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444161</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>104.1233804225867</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>174.1401868743384</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8253826161920278</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542889</v>
       </c>
       <c r="X28" t="n">
-        <v>154.0364602909681</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>173.5574391555629</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445519</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3667,19 +3667,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.220799592402</v>
+        <v>1259.395109305651</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.25828265199</v>
+        <v>1259.395109305651</v>
       </c>
       <c r="D2" t="n">
-        <v>763.9925840452399</v>
+        <v>1203.169208560074</v>
       </c>
       <c r="E2" t="n">
-        <v>763.9925840452399</v>
+        <v>817.3809559618294</v>
       </c>
       <c r="F2" t="n">
-        <v>763.9925840452399</v>
+        <v>406.3950511722218</v>
       </c>
       <c r="G2" t="n">
-        <v>348.9078653011048</v>
+        <v>406.3950511722218</v>
       </c>
       <c r="H2" t="n">
         <v>108.6858050925453</v>
       </c>
       <c r="I2" t="n">
-        <v>66.21592154951944</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J2" t="n">
-        <v>254.0744928369591</v>
+        <v>254.0744928369592</v>
       </c>
       <c r="K2" t="n">
-        <v>586.3643121319017</v>
+        <v>586.3643121319018</v>
       </c>
       <c r="L2" t="n">
         <v>1035.500977900981</v>
@@ -4349,31 +4349,31 @@
         <v>3005.546484356408</v>
       </c>
       <c r="Q2" t="n">
-        <v>3252.534341412641</v>
+        <v>3252.53434141264</v>
       </c>
       <c r="R2" t="n">
-        <v>3310.796077475972</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="S2" t="n">
         <v>3200.225838528231</v>
       </c>
       <c r="T2" t="n">
-        <v>2994.19438516353</v>
+        <v>2994.194385163529</v>
       </c>
       <c r="U2" t="n">
-        <v>2994.19438516353</v>
+        <v>2740.662926950235</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.19438516353</v>
+        <v>2409.600039606664</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.425729893415</v>
+        <v>2409.600039606664</v>
       </c>
       <c r="X2" t="n">
-        <v>2267.959971632336</v>
+        <v>2036.134281345584</v>
       </c>
       <c r="Y2" t="n">
-        <v>1877.820639656524</v>
+        <v>1645.994949369773</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3156003142899</v>
+        <v>1687.28192383232</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8625710331629</v>
+        <v>1512.828894551193</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9281613719115</v>
+        <v>1363.894484889942</v>
       </c>
       <c r="E3" t="n">
-        <v>448.690706366456</v>
+        <v>1204.657029884486</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1561483933411</v>
+        <v>1058.122471911371</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7864839520668</v>
+        <v>921.752807470097</v>
       </c>
       <c r="H3" t="n">
-        <v>75.22119252365755</v>
+        <v>831.1875160416878</v>
       </c>
       <c r="I3" t="n">
-        <v>66.21592154951944</v>
+        <v>822.1822450675497</v>
       </c>
       <c r="J3" t="n">
-        <v>159.2853526912741</v>
+        <v>915.2516762093043</v>
       </c>
       <c r="K3" t="n">
-        <v>396.510659118347</v>
+        <v>1152.476982636377</v>
       </c>
       <c r="L3" t="n">
-        <v>761.8119001858311</v>
+        <v>1517.778223703861</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.458086537445</v>
+        <v>1963.424410055474</v>
       </c>
       <c r="N3" t="n">
-        <v>1679.307846295919</v>
+        <v>2435.274169813948</v>
       </c>
       <c r="O3" t="n">
-        <v>2088.738397943176</v>
+        <v>2844.704721461206</v>
       </c>
       <c r="P3" t="n">
-        <v>2398.00944543187</v>
+        <v>3153.9757689499</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.829753957941</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="R3" t="n">
-        <v>2554.829753957941</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.269938942937</v>
+        <v>3181.236262460967</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.600479990498</v>
+        <v>2988.566803508528</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.532201264789</v>
+        <v>2760.498524782819</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.380093033046</v>
+        <v>2525.346416551076</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.142736304845</v>
+        <v>2271.109059822875</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.291236099312</v>
+        <v>2063.257559617342</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.530937334358</v>
+        <v>1855.497260852388</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2096.436162787705</v>
+        <v>2018.1709287213</v>
       </c>
       <c r="C4" t="n">
-        <v>2096.436162787705</v>
+        <v>1849.234745793393</v>
       </c>
       <c r="D4" t="n">
-        <v>1946.319523375369</v>
+        <v>1699.118106381058</v>
       </c>
       <c r="E4" t="n">
-        <v>1798.406429792976</v>
+        <v>1699.118106381058</v>
       </c>
       <c r="F4" t="n">
-        <v>1651.516482295066</v>
+        <v>1699.118106381058</v>
       </c>
       <c r="G4" t="n">
-        <v>1483.808142403062</v>
+        <v>1699.118106381058</v>
       </c>
       <c r="H4" t="n">
-        <v>1483.808142403062</v>
+        <v>1552.851990554777</v>
       </c>
       <c r="I4" t="n">
         <v>1455.360815133848</v>
       </c>
       <c r="J4" t="n">
-        <v>1500.102109334508</v>
+        <v>1500.102109334507</v>
       </c>
       <c r="K4" t="n">
-        <v>1703.462636402272</v>
+        <v>1703.462636402271</v>
       </c>
       <c r="L4" t="n">
-        <v>2019.220531073013</v>
+        <v>2019.220531073012</v>
       </c>
       <c r="M4" t="n">
         <v>2362.532081574125</v>
       </c>
       <c r="N4" t="n">
-        <v>2703.11506716522</v>
+        <v>2703.115067165219</v>
       </c>
       <c r="O4" t="n">
-        <v>3001.68228379772</v>
+        <v>3001.682283797719</v>
       </c>
       <c r="P4" t="n">
         <v>3233.637434478459</v>
       </c>
       <c r="Q4" t="n">
-        <v>3310.796077475972</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="R4" t="n">
-        <v>3310.796077475972</v>
+        <v>3220.718173349747</v>
       </c>
       <c r="S4" t="n">
-        <v>3310.796077475972</v>
+        <v>3125.076141187265</v>
       </c>
       <c r="T4" t="n">
-        <v>3089.005948087681</v>
+        <v>2903.286011798974</v>
       </c>
       <c r="U4" t="n">
-        <v>2799.902781035139</v>
+        <v>2903.286011798974</v>
       </c>
       <c r="V4" t="n">
-        <v>2545.218292829253</v>
+        <v>2648.601523593087</v>
       </c>
       <c r="W4" t="n">
-        <v>2545.218292829253</v>
+        <v>2648.601523593087</v>
       </c>
       <c r="X4" t="n">
-        <v>2317.228741931235</v>
+        <v>2420.61197269507</v>
       </c>
       <c r="Y4" t="n">
-        <v>2096.436162787705</v>
+        <v>2199.81939355154</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1895.108706985566</v>
+        <v>1105.280050346926</v>
       </c>
       <c r="C5" t="n">
-        <v>1526.146190045155</v>
+        <v>736.3175334065145</v>
       </c>
       <c r="D5" t="n">
-        <v>1167.880491438404</v>
+        <v>378.051834799764</v>
       </c>
       <c r="E5" t="n">
-        <v>782.0922388401601</v>
+        <v>378.051834799764</v>
       </c>
       <c r="F5" t="n">
-        <v>775.1467380909567</v>
+        <v>378.051834799764</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>367.0197886851645</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>69.43618829393175</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,7 +4580,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3192.846999987788</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2939.316523261625</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2608.253635918054</v>
       </c>
       <c r="W5" t="n">
-        <v>3045.31363728658</v>
+        <v>2255.48498064794</v>
       </c>
       <c r="X5" t="n">
-        <v>2671.8478790255</v>
+        <v>1882.01922238686</v>
       </c>
       <c r="Y5" t="n">
-        <v>2281.708547049688</v>
+        <v>1491.879890411048</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>560.1023745137405</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C7" t="n">
-        <v>391.1661915858336</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D7" t="n">
-        <v>391.1661915858336</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>243.2530980034405</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>243.2530980034405</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>75.55026137815949</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>75.55026137815949</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1693.041511180013</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278958</v>
+        <v>1438.357022974126</v>
       </c>
       <c r="W7" t="n">
-        <v>969.7403902419976</v>
+        <v>1148.939852937165</v>
       </c>
       <c r="X7" t="n">
-        <v>741.7508393439803</v>
+        <v>920.9503020391476</v>
       </c>
       <c r="Y7" t="n">
-        <v>741.7508393439803</v>
+        <v>700.1577228956174</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3298.556414856337</v>
+        <v>3324.165338669773</v>
       </c>
       <c r="T8" t="n">
-        <v>3092.578667240559</v>
+        <v>3324.165338669773</v>
       </c>
       <c r="U8" t="n">
-        <v>3092.578667240559</v>
+        <v>3070.634861943609</v>
       </c>
       <c r="V8" t="n">
-        <v>3092.578667240559</v>
+        <v>3070.634861943609</v>
       </c>
       <c r="W8" t="n">
-        <v>2739.810011970445</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.344253709365</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>914.1161452244863</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C10" t="n">
-        <v>745.1799622965794</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D10" t="n">
-        <v>595.0633228842437</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.908724368016</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y10" t="n">
-        <v>914.1161452244863</v>
+        <v>563.9867116882405</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616111</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235166</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1975.033022579363</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,19 +5349,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687887</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845476</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
         <v>1501.8401750111</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3403484614464</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4041655335395</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D16" t="n">
-        <v>664.2875261212038</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>516.3744325388107</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>369.4844850409003</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>202.2883857557802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580268</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235172</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258114</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602311</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396424</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359464</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614464</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273913</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516147</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348534</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2330.088019603117</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2110.486554626058</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1821.411327970255</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1566.726839764368</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1277.309669727408</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168638</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436271</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,19 +5823,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403286</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
         <v>1373.553594266881</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380895</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101826</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978468</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>422.7903292978468</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>422.7903292978468</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611859</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683292</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192514</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273913</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516147</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348534</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2043.673064443772</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6206,67 +6206,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811332</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532263</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1171.546645824663</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.7540666811332</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6455,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.8386896933887</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949674</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7576,16 +7576,16 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380735</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231133</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>-7.191019778975579e-14</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>299.0193998825615</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H2" t="n">
-        <v>56.9123140124058</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,13 +22601,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9961436311612</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H4" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>68.35340967019829</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.17712508496183</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.8639731922165</v>
+        <v>95.17836135135899</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22793,16 +22793,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>3.981214598588388</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>38.68209862979512</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631857025</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>43.04708356698157</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>130.4994612393478</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>114.1735436840592</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>65.31997266427088</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>61.4007578696821</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>43.26526345294988</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.5498640939296</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="X28" t="n">
-        <v>71.67319509806902</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.274541026374379</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.247535904753022e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1242487.499862494</v>
+        <v>1242487.499862493</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1242487.499862494</v>
+        <v>1242487.499862493</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1242487.499862494</v>
+        <v>1242487.499862493</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1242487.499862494</v>
+        <v>1242487.499862493</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1242487.499862494</v>
+        <v>1242487.499862493</v>
       </c>
     </row>
     <row r="11">
@@ -26314,37 +26314,37 @@
         <v>153142.8731705833</v>
       </c>
       <c r="C2" t="n">
-        <v>183918.45185377</v>
+        <v>183918.4518537702</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="F2" t="n">
         <v>181607.9849302514</v>
       </c>
-      <c r="F2" t="n">
-        <v>181607.9849302513</v>
-      </c>
       <c r="G2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="H2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="I2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="J2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194636</v>
@@ -26353,7 +26353,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>1324592.616629867</v>
       </c>
       <c r="C3" t="n">
-        <v>3947.34439001556</v>
+        <v>3947.344390015596</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>216562.4822237801</v>
+        <v>216562.4822237808</v>
       </c>
       <c r="K3" t="n">
-        <v>952.8885570183954</v>
+        <v>952.8885570183077</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>12422.53326902072</v>
       </c>
       <c r="C4" t="n">
-        <v>89504.10908220249</v>
+        <v>89504.10908220288</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316939</v>
@@ -26430,31 +26430,31 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181802</v>
+        <v>12386.9201818181</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181802</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.77944491162</v>
+        <v>20377.77944491161</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491162</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="N4" t="n">
+        <v>20377.7794449116</v>
+      </c>
+      <c r="O4" t="n">
         <v>20377.77944491161</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20377.7794449116</v>
       </c>
       <c r="P4" t="n">
         <v>20377.7794449116</v>
@@ -26476,19 +26476,19 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1291515.244982078</v>
+        <v>-1291866.261927065</v>
       </c>
       <c r="C6" t="n">
-        <v>-17466.94217984137</v>
+        <v>-17476.00825057154</v>
       </c>
       <c r="D6" t="n">
-        <v>-14773.4972950989</v>
+        <v>-14773.49729509887</v>
       </c>
       <c r="E6" t="n">
-        <v>-257313.9268828295</v>
+        <v>-257348.6648082646</v>
       </c>
       <c r="F6" t="n">
-        <v>68098.53492452606</v>
+        <v>68063.79699909045</v>
       </c>
       <c r="G6" t="n">
-        <v>68098.53492452597</v>
+        <v>68063.79699909048</v>
       </c>
       <c r="H6" t="n">
-        <v>68098.53492452632</v>
+        <v>68063.79699909038</v>
       </c>
       <c r="I6" t="n">
-        <v>68098.534924526</v>
+        <v>68063.7969990905</v>
       </c>
       <c r="J6" t="n">
-        <v>-148463.947299254</v>
+        <v>-148498.6852246904</v>
       </c>
       <c r="K6" t="n">
-        <v>67145.64636750759</v>
+        <v>67110.90844207215</v>
       </c>
       <c r="L6" t="n">
         <v>41764.78492700477</v>
       </c>
       <c r="M6" t="n">
-        <v>-23862.52501487533</v>
+        <v>-23862.52501487505</v>
       </c>
       <c r="N6" t="n">
+        <v>61192.50292063656</v>
+      </c>
+      <c r="O6" t="n">
         <v>61192.50292063662</v>
       </c>
-      <c r="O6" t="n">
-        <v>61192.50292063665</v>
-      </c>
       <c r="P6" t="n">
-        <v>61192.50292063665</v>
+        <v>61192.50292063667</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.6990193689929</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26796,19 +26796,19 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.6990193689929</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="C4" t="n">
-        <v>3.702436033299932</v>
+        <v>3.702436033300046</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.699019368992</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="K4" t="n">
-        <v>3.70243603330016</v>
+        <v>3.702436033299819</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.6990193689929</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="K4" t="n">
-        <v>3.702436033299932</v>
+        <v>3.702436033300046</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>181.6744985226269</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>71.75170623804718</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>87.40465691332179</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>273.8502809423866</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.40884910286985</v>
+        <v>107.761683678171</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>30.30151184221661</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>139.0409798470834</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.164165557090503e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-2.419824340904597e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,19 +31841,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319844</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>456.3459017226588</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643557995</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,19 +32552,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601583</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643557995</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875399</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>318.5044627482998</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572999056</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113551</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802841</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113551</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998997</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
